--- a/model_runs/model_runs_log.xlsx
+++ b/model_runs/model_runs_log.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\model_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C3871F-8FC6-4905-831F-D39D0ADD1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143061CC-F180-47A1-A360-67E8873A1234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" xr2:uid="{001A1564-CC86-41B8-A967-2B8A2CAA54E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ConvLSTMSeparateBranches" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="6">
+  <futureMetadata name="XLRICHVALUE" count="10">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -83,8 +83,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="6">
+  <valueMetadata count="10">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -102,13 +130,25 @@
     </bk>
     <bk>
       <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Job ID</t>
   </si>
@@ -155,9 +195,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>LeakyRELU added in final conv</t>
-  </si>
-  <si>
     <t>RMSProp</t>
   </si>
   <si>
@@ -174,6 +211,12 @@
   </si>
   <si>
     <t>Fixed rainfall scaling</t>
+  </si>
+  <si>
+    <t>Reverted back to ReLU</t>
+  </si>
+  <si>
+    <t>LeakyReLU added in final conv</t>
   </si>
 </sst>
 </file>
@@ -271,7 +314,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -296,6 +339,22 @@
     <v>5</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -316,6 +375,10 @@
   <rel r:id="rId4"/>
   <rel r:id="rId5"/>
   <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
 </richValueRels>
 </file>
 
@@ -677,7 +740,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -710,10 +773,10 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
         <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -727,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>5.7291666666666663E-3</v>
@@ -748,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -780,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>2.7905092592592592E-2</v>
@@ -801,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4">
         <v>16</v>
@@ -833,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>3.2615740740740744E-2</v>
@@ -854,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5">
         <v>16</v>
@@ -886,9 +949,11 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
       <c r="F6">
         <v>500</v>
       </c>
@@ -905,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6">
         <v>16</v>
@@ -918,6 +983,12 @@
       </c>
       <c r="O6">
         <v>1</v>
+      </c>
+      <c r="P6" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" t="e" vm="8">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -931,9 +1002,11 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.8888888888888888E-2</v>
+      </c>
       <c r="F7">
         <v>500</v>
       </c>
@@ -950,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7">
         <v>16</v>
@@ -964,12 +1037,102 @@
       <c r="O7">
         <v>1</v>
       </c>
+      <c r="P7" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>137798</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="2"/>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>1E-3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>137805</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="2"/>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1E-3</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E10" s="2"/>

--- a/model_runs/model_runs_log.xlsx
+++ b/model_runs/model_runs_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\model_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143061CC-F180-47A1-A360-67E8873A1234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE788B-34E6-42D6-8164-B0A1D777FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" xr2:uid="{001A1564-CC86-41B8-A967-2B8A2CAA54E2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="10">
+  <futureMetadata name="XLRICHVALUE" count="14">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -111,8 +111,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="10">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -142,6 +170,18 @@
     </bk>
     <bk>
       <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -314,7 +354,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -353,6 +393,22 @@
   </rv>
   <rv s="0">
     <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -379,6 +435,10 @@
   <rel r:id="rId8"/>
   <rel r:id="rId9"/>
   <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
 </richValueRels>
 </file>
 
@@ -702,7 +762,7 @@
   <dimension ref="A2:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,7 +1117,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>2.7939814814814813E-2</v>
+      </c>
       <c r="F8">
         <v>500</v>
       </c>
@@ -1087,6 +1149,12 @@
       </c>
       <c r="O8">
         <v>1</v>
+      </c>
+      <c r="P8" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" t="e" vm="12">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1102,7 +1170,9 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>2.5717592592592594E-2</v>
+      </c>
       <c r="F9">
         <v>500</v>
       </c>
@@ -1132,6 +1202,12 @@
       </c>
       <c r="O9">
         <v>1</v>
+      </c>
+      <c r="P9" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" t="e" vm="14">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">

--- a/model_runs/model_runs_log.xlsx
+++ b/model_runs/model_runs_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\model_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE788B-34E6-42D6-8164-B0A1D777FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427A533-9A38-4709-B799-A0F878B5898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" xr2:uid="{001A1564-CC86-41B8-A967-2B8A2CAA54E2}"/>
   </bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Job ID</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>LeakyReLU added in final conv</t>
+  </si>
+  <si>
+    <t>ConvBlock Kernel Size</t>
+  </si>
+  <si>
+    <t>FinalConv Kernel Size</t>
+  </si>
+  <si>
+    <t>ConvLSTM Kernel Size</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1EE61-5D86-4787-86F2-0BA844445D11}">
-  <dimension ref="A2:Q29"/>
+  <dimension ref="A2:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,11 +791,13 @@
     <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -833,13 +844,22 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>137735</v>
       </c>
@@ -885,14 +905,23 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="e" vm="1">
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="Q3" t="e" vm="2">
+      <c r="T3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>137743</v>
       </c>
@@ -938,14 +967,23 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" t="e" vm="3">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="Q4" t="e" vm="4">
+      <c r="T4" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>137759</v>
       </c>
@@ -991,14 +1029,23 @@
       <c r="O5">
         <v>2</v>
       </c>
-      <c r="P5" t="e" vm="5">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="Q5" t="e" vm="6">
+      <c r="T5" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>137776</v>
       </c>
@@ -1044,14 +1091,23 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" t="e" vm="7">
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="Q6" t="e" vm="8">
+      <c r="T6" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>137777</v>
       </c>
@@ -1097,14 +1153,23 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" t="e" vm="9">
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="Q7" t="e" vm="10">
+      <c r="T7" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>137798</v>
       </c>
@@ -1150,14 +1215,23 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8" t="e" vm="11">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="Q8" t="e" vm="12">
+      <c r="T8" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>137805</v>
       </c>
@@ -1203,32 +1277,41 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" t="e" vm="13">
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="Q9" t="e" vm="14">
+      <c r="T9" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">

--- a/model_runs/model_runs_log.xlsx
+++ b/model_runs/model_runs_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\model_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427A533-9A38-4709-B799-A0F878B5898A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF83DCF-DA78-4EC4-88DF-1E02C591B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" xr2:uid="{001A1564-CC86-41B8-A967-2B8A2CAA54E2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="14">
+  <futureMetadata name="XLRICHVALUE" count="16">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -139,8 +139,22 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="14">
+  <valueMetadata count="16">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -182,13 +196,19 @@
     </bk>
     <bk>
       <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Job ID</t>
   </si>
@@ -266,6 +286,15 @@
   </si>
   <si>
     <t>ConvLSTM Kernel Size</t>
+  </si>
+  <si>
+    <t>Removed soil moisture</t>
+  </si>
+  <si>
+    <t>Topology normalised instead of standardised</t>
+  </si>
+  <si>
+    <t>No final ReLU</t>
   </si>
 </sst>
 </file>
@@ -363,7 +392,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="14">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -418,6 +447,14 @@
   </rv>
   <rv s="0">
     <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -448,6 +485,8 @@
   <rel r:id="rId12"/>
   <rel r:id="rId13"/>
   <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
 </richValueRels>
 </file>
 
@@ -771,7 +810,7 @@
   <dimension ref="A2:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,13 +1333,171 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="E10" s="2"/>
+      <c r="A10">
+        <v>137837</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.7754629629629629E-2</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>1E-4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T10" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>137848</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" s="2"/>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>1E-4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="2"/>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>1E-4</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>

--- a/model_runs/model_runs_log.xlsx
+++ b/model_runs/model_runs_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\vkhandekar\project_flood\model_runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF83DCF-DA78-4EC4-88DF-1E02C591B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D48244-5598-4F08-B7F3-97DB1D4A285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-6330" windowWidth="29040" windowHeight="15720" xr2:uid="{001A1564-CC86-41B8-A967-2B8A2CAA54E2}"/>
   </bookViews>
@@ -40,7 +40,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="16">
+  <futureMetadata name="XLRICHVALUE" count="20">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -153,8 +153,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="16">
+  <valueMetadata count="20">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -202,6 +230,18 @@
     </bk>
     <bk>
       <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -392,7 +432,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="16">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="20">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -455,6 +495,22 @@
   </rv>
   <rv s="0">
     <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -487,6 +543,10 @@
   <rel r:id="rId14"/>
   <rel r:id="rId15"/>
   <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
 </richValueRels>
 </file>
 
@@ -809,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1EE61-5D86-4787-86F2-0BA844445D11}">
   <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1407,7 +1467,9 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2.5972222222222223E-2</v>
+      </c>
       <c r="F11">
         <v>500</v>
       </c>
@@ -1447,8 +1509,17 @@
       <c r="R11">
         <v>5</v>
       </c>
+      <c r="S11" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>137853</v>
+      </c>
       <c r="B12" s="1">
         <v>45511</v>
       </c>
@@ -1458,7 +1529,9 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2.7754629629629629E-2</v>
+      </c>
       <c r="F12">
         <v>500</v>
       </c>
@@ -1497,6 +1570,12 @@
       </c>
       <c r="R12">
         <v>5</v>
+      </c>
+      <c r="S12" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" t="e" vm="20">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
